--- a/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
@@ -31,28 +31,28 @@
     <t>TotN</t>
   </si>
   <si>
-    <t>% 1-2</t>
-  </si>
-  <si>
-    <t># 1-2</t>
-  </si>
-  <si>
-    <t>% 3</t>
-  </si>
-  <si>
-    <t># 3</t>
-  </si>
-  <si>
-    <t>% 4</t>
-  </si>
-  <si>
-    <t># 4</t>
-  </si>
-  <si>
-    <t>% 5</t>
-  </si>
-  <si>
-    <t># 5</t>
+    <t>% severity levels 1-2</t>
+  </si>
+  <si>
+    <t># severity levels 1-2</t>
+  </si>
+  <si>
+    <t>% severity level 3</t>
+  </si>
+  <si>
+    <t># severity level 3</t>
+  </si>
+  <si>
+    <t>% severity level 4</t>
+  </si>
+  <si>
+    <t># severity level 4</t>
+  </si>
+  <si>
+    <t>% severity level 5</t>
+  </si>
+  <si>
+    <t># severity level 5</t>
   </si>
   <si>
     <t>Category</t>

--- a/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>Population group</t>
@@ -55,67 +55,67 @@
     <t>Category</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>ocap</t>
   </si>
   <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
     <t>idp</t>
   </si>
   <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
     <t>ret</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
   </si>
   <si>
     <t>ndsp</t>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +525,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>56476.13999999999</v>
+        <v>124041.96</v>
       </c>
       <c r="D2">
-        <v>0.7625006163381717</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>43063.09155840086</v>
+        <v>124041.96</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2374993836618283</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>13413.04844159913</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -563,22 +563,22 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>29570.52</v>
+        <v>144008.76</v>
       </c>
       <c r="D3">
-        <v>0.2785826575513146</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8237.834046774298</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7214173424486855</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21332.6859532257</v>
+        <v>144008.76</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -601,28 +601,28 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>42660.24</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D4">
-        <v>0.5625343327275589</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>23997.84964239752</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.437465667272441</v>
+        <v>0.5285901027516089</v>
       </c>
       <c r="G4">
-        <v>18662.39035760248</v>
+        <v>29852.72864561425</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4714098972483911</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26623.41135438575</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -639,37 +639,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>47614.13999999999</v>
+        <v>51165.24</v>
       </c>
       <c r="D5">
-        <v>0.07083158671388184</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3372.58508621691</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7797727386158069</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>37128.20834463643</v>
+        <v>51165.24</v>
       </c>
       <c r="H5">
-        <v>0.06926931685139751</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3298.198950266799</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0801263578189137</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3815.147618879851</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -677,22 +677,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>124041.96</v>
+        <v>104144.04</v>
       </c>
       <c r="D6">
-        <v>0.2221725088733424</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>27558.71345876678</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7778274911266575</v>
+        <v>0.8124667451313677</v>
       </c>
       <c r="G6">
-        <v>96483.24654123318</v>
+        <v>84613.56920363096</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1875332548686322</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19530.47079636903</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -715,28 +715,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>133585.844</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="D7">
-        <v>0.8891652018440264</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>118779.8839437646</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05701166184594353</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>7615.950965532963</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="H7">
-        <v>0.05382313631002998</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7190.0090907024</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -753,28 +753,28 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>53642.134</v>
       </c>
       <c r="D8">
-        <v>0.6765720390322051</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>36292.76797841877</v>
+        <v>53642.134</v>
       </c>
       <c r="F8">
-        <v>0.2256752448089147</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>12105.70172252261</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.09775271615888015</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5243.664299058614</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -791,16 +791,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>38718.694</v>
+        <v>124041.96</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="E9">
-        <v>38718.694</v>
+        <v>94582.07095179483</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29459.88904820516</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -829,28 +829,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>36645.665</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D10">
-        <v>0.4930934922323051</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="E10">
-        <v>18069.73893002516</v>
+        <v>43063.09155840086</v>
       </c>
       <c r="F10">
-        <v>0.5069065077676949</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>18575.92606997484</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13413.04844159913</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -867,28 +867,28 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>281767.4999999999</v>
+        <v>51165.24</v>
       </c>
       <c r="D11">
-        <v>0.857318972308269</v>
+        <v>0.7625006163381717</v>
       </c>
       <c r="E11">
-        <v>241564.6235298702</v>
+        <v>39013.52703509048</v>
       </c>
       <c r="F11">
-        <v>0.142681027691731</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>40202.87647012981</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2374993836618283</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12151.71296490952</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -905,28 +905,28 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>56257.74</v>
+        <v>38718.694</v>
       </c>
       <c r="D12">
-        <v>0.5806145767900539</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="E12">
-        <v>32664.06390126489</v>
+        <v>10786.35667143614</v>
       </c>
       <c r="F12">
-        <v>0.2262579643414813</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="G12">
-        <v>12728.76173085233</v>
+        <v>27932.33732856386</v>
       </c>
       <c r="H12">
-        <v>0.1931274588684647</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>10864.91436788278</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -943,37 +943,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>62032.31999999999</v>
+        <v>133585.844</v>
       </c>
       <c r="D13">
-        <v>0.06499055438046973</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="E13">
-        <v>4031.5148663067</v>
+        <v>37214.69943275533</v>
       </c>
       <c r="F13">
-        <v>0.7740026053855156</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="G13">
-        <v>48013.17729810802</v>
+        <v>96371.14456724467</v>
       </c>
       <c r="H13">
-        <v>0.07327202925890423</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4545.23396603771</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08773481097511046</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>5442.393869547564</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -981,22 +981,22 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>44203.45299999999</v>
+        <v>33257.29399999999</v>
       </c>
       <c r="D14">
-        <v>0.5514417177181167</v>
+        <v>0.2785826575513146</v>
       </c>
       <c r="E14">
-        <v>24375.62805139204</v>
+        <v>9264.905345485389</v>
       </c>
       <c r="F14">
-        <v>0.4485582822818833</v>
+        <v>0.7214173424486855</v>
       </c>
       <c r="G14">
-        <v>19827.82494860796</v>
+        <v>23992.38865451461</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1011,197 +1011,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>144008.76</v>
-      </c>
-      <c r="D15">
-        <v>0.7714020824206588</v>
-      </c>
-      <c r="E15">
-        <v>111088.6573508169</v>
-      </c>
-      <c r="F15">
-        <v>0.2285979175793412</v>
-      </c>
-      <c r="G15">
-        <v>32920.10264918313</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>104144.04</v>
-      </c>
-      <c r="D16">
-        <v>0.8794025374140514</v>
-      </c>
-      <c r="E16">
-        <v>91584.53303255046</v>
-      </c>
-      <c r="F16">
-        <v>0.1205974625859487</v>
-      </c>
-      <c r="G16">
-        <v>12559.50696744954</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>33257.29399999999</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>33257.29399999999</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>38465.035</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>38465.035</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>51165.24</v>
-      </c>
-      <c r="D19">
-        <v>0.9019696396363932</v>
-      </c>
-      <c r="E19">
-        <v>46149.49308470957</v>
-      </c>
-      <c r="F19">
-        <v>0.09803036036360673</v>
-      </c>
-      <c r="G19">
-        <v>5015.746915290425</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,31 +1067,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>8068.02</v>
+        <v>20572.68</v>
       </c>
       <c r="D2">
-        <v>0.7683007123928434</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>6198.665513599709</v>
+        <v>20572.68</v>
       </c>
       <c r="F2">
-        <v>0.1175143160328625</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>948.1078520394557</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1141849715742941</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>921.2466343608365</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1290,36 +1100,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>4224.36</v>
+        <v>40252.5</v>
       </c>
       <c r="D3">
-        <v>0.5191195119111097</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2192.947701336815</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3429346764047292</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1448.679529617082</v>
+        <v>40252.5</v>
       </c>
       <c r="H3">
-        <v>0.1379458116841611</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>582.7327690461026</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1328,36 +1138,36 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>6094.320000000001</v>
+        <v>17720.28</v>
       </c>
       <c r="D4">
-        <v>0.3606910160137596</v>
+        <v>0.4277355731430004</v>
       </c>
       <c r="E4">
-        <v>2198.166472712976</v>
+        <v>7579.594122054447</v>
       </c>
       <c r="F4">
-        <v>0.6393089839862405</v>
+        <v>0.3971100340829685</v>
       </c>
       <c r="G4">
-        <v>3896.153527287026</v>
+        <v>7036.900994759745</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1751543927740311</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3103.784883185807</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1366,30 +1176,30 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>6802.02</v>
+        <v>8068.02</v>
       </c>
       <c r="D5">
-        <v>0.2842263878633318</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1933.313574774141</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7157736121366682</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4868.706425225861</v>
+        <v>8068.02</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1404,36 +1214,36 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>17720.28</v>
+        <v>6094.320000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.5058192528226277</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3082.624388861997</v>
       </c>
       <c r="F6">
-        <v>0.8320952437399765</v>
+        <v>0.252790446765425</v>
       </c>
       <c r="G6">
-        <v>14744.96070574063</v>
+        <v>1540.585875531465</v>
       </c>
       <c r="H6">
-        <v>0.1679047562600235</v>
+        <v>0.2413903004119472</v>
       </c>
       <c r="I6">
-        <v>2975.31929425937</v>
+        <v>1471.109735606538</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1442,36 +1252,36 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>19083.692</v>
+        <v>17720.28</v>
       </c>
       <c r="D7">
-        <v>0.303794032771545</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="E7">
-        <v>5797.511752850073</v>
+        <v>13614.50374780066</v>
       </c>
       <c r="F7">
-        <v>0.53021289991252</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="G7">
-        <v>10118.41967635736</v>
+        <v>2082.386584110814</v>
       </c>
       <c r="H7">
-        <v>0.1659930673159349</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="I7">
-        <v>3167.76057079257</v>
+        <v>2023.389668088533</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1480,36 +1290,36 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>7663.161999999999</v>
+        <v>8068.02</v>
       </c>
       <c r="D8">
-        <v>0.8238233498336641</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="E8">
-        <v>6313.09178915804</v>
+        <v>6198.665513599709</v>
       </c>
       <c r="F8">
-        <v>0.1761766501663359</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="G8">
-        <v>1350.070210841958</v>
+        <v>948.1078520394557</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>921.2466343608365</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1518,36 +1328,36 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>5235.094999999999</v>
+        <v>7309.320000000001</v>
       </c>
       <c r="D9">
-        <v>0.3730845400359347</v>
+        <v>0.7683007123928434</v>
       </c>
       <c r="E9">
-        <v>1953.133010119421</v>
+        <v>5615.755763107259</v>
       </c>
       <c r="F9">
-        <v>0.4011707121422344</v>
+        <v>0.1175143160328625</v>
       </c>
       <c r="G9">
-        <v>2100.16678928225</v>
+        <v>858.9497404653229</v>
       </c>
       <c r="H9">
-        <v>0.2257447478218309</v>
+        <v>0.1141849715742941</v>
       </c>
       <c r="I9">
-        <v>1181.795200598328</v>
+        <v>834.6144964274196</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1556,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1564,28 +1374,28 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>8036.82</v>
+        <v>5531.242</v>
       </c>
       <c r="D10">
-        <v>0.7252583117675182</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="E10">
-        <v>5828.770505179426</v>
+        <v>2871.37564730223</v>
       </c>
       <c r="F10">
-        <v>0.09952567634425109</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="G10">
-        <v>799.8699461570041</v>
+        <v>1896.854685386247</v>
       </c>
       <c r="H10">
-        <v>0.1752160118882306</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="I10">
-        <v>1408.179548663569</v>
+        <v>763.0116673115224</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1594,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1602,28 +1412,28 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>8861.76</v>
+        <v>19083.692</v>
       </c>
       <c r="D11">
-        <v>0.4359311616766347</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="E11">
-        <v>3863.117331299534</v>
+        <v>9906.716876501951</v>
       </c>
       <c r="F11">
-        <v>0.3674793421540102</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="G11">
-        <v>3256.513735126721</v>
+        <v>6544.45974062752</v>
       </c>
       <c r="H11">
-        <v>0.1965894961693551</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="I11">
-        <v>1742.128933573745</v>
+        <v>2632.515382870532</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1632,36 +1442,36 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>20572.68</v>
+        <v>4751.041999999999</v>
       </c>
       <c r="D12">
-        <v>0.4978562609662319</v>
+        <v>0.5191195119111097</v>
       </c>
       <c r="E12">
-        <v>10242.23754285478</v>
+        <v>2466.358604109182</v>
       </c>
       <c r="F12">
-        <v>0.5021437390337681</v>
+        <v>0.3429346764047292</v>
       </c>
       <c r="G12">
-        <v>10330.44245714522</v>
+        <v>1629.297050855277</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1379458116841611</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>655.3863450355399</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1670,45 +1480,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>14877.72</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.8779143024536373</v>
-      </c>
-      <c r="G13">
-        <v>13061.36317590053</v>
-      </c>
-      <c r="H13">
-        <v>0.1220856975463627</v>
-      </c>
-      <c r="I13">
-        <v>1816.356824099471</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1718,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1764,25 +1536,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>4034.01</v>
+        <v>2112.18</v>
       </c>
       <c r="D2">
-        <v>0.5728914991970709</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2311.050036675976</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.427108500802929</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1722.959963324024</v>
+        <v>2112.18</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1797,30 +1569,30 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>2112.18</v>
+        <v>20126.25</v>
       </c>
       <c r="D3">
-        <v>0.1612653202823215</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>340.6213841939137</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7973035518230968</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1684.048616089708</v>
+        <v>20126.25</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1829,42 +1601,42 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04143112789458182</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>87.50999971637783</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>3047.16</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D4">
-        <v>0.8182504121154449</v>
+        <v>0.4870849151903637</v>
       </c>
       <c r="E4">
-        <v>2493.3399257817</v>
+        <v>4315.64054047475</v>
       </c>
       <c r="F4">
-        <v>0.1817495878845551</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>553.820074218301</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5129150848096363</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4544.499459525252</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1873,36 +1645,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>3401.01</v>
+        <v>4034.01</v>
       </c>
       <c r="D5">
-        <v>0.4350794172658147</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1479.709448915208</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4308936255144685</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1465.473529310962</v>
+        <v>4034.01</v>
       </c>
       <c r="H5">
-        <v>0.1340269572197167</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>455.8270217738289</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1911,30 +1683,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>8860.140000000001</v>
+        <v>3654.66</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.5613538191485988</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2051.557348689618</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.4386461808514012</v>
       </c>
       <c r="G6">
-        <v>8860.140000000001</v>
+        <v>1603.102651310382</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1949,36 +1721,36 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>9541.846000000001</v>
+        <v>7438.86</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7438.86</v>
       </c>
       <c r="F7">
-        <v>0.4777785667786625</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>4558.889506302714</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5222214332213376</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4982.956493697288</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1987,30 +1759,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>3831.581</v>
+        <v>20126.25</v>
       </c>
       <c r="D8">
-        <v>0.4834006898809273</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1852.188898734653</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5165993101190727</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1979.392101265346</v>
+        <v>20126.25</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2025,30 +1797,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>2617.5475</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5075.898887695937</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="G9">
-        <v>2617.5475</v>
+        <v>3784.241112304064</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2063,36 +1835,36 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>4018.41</v>
+        <v>4034.01</v>
       </c>
       <c r="D10">
-        <v>0.4575248580937195</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="E10">
-        <v>1838.522465012383</v>
+        <v>2311.050036675976</v>
       </c>
       <c r="F10">
-        <v>0.4112656483143128</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="G10">
-        <v>1652.633993842717</v>
+        <v>1722.959963324024</v>
       </c>
       <c r="H10">
-        <v>0.1312094935919678</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>527.2535411448994</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2101,36 +1873,36 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>4430.88</v>
+        <v>3654.66</v>
       </c>
       <c r="D11">
-        <v>0.3049422361569381</v>
+        <v>0.5728914991970709</v>
       </c>
       <c r="E11">
-        <v>1351.162455343054</v>
+        <v>2093.723646455568</v>
       </c>
       <c r="F11">
-        <v>0.5914072789892476</v>
+        <v>0.427108500802929</v>
       </c>
       <c r="G11">
-        <v>2620.454684327878</v>
+        <v>1560.936353544433</v>
       </c>
       <c r="H11">
-        <v>0.1036504848538142</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>459.2628603290682</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2139,30 +1911,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>10286.34</v>
+        <v>2765.621</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1612653202823215</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>445.9987563445142</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.7973035518230968</v>
       </c>
       <c r="G12">
-        <v>10286.34</v>
+        <v>2205.039446296545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2171,36 +1943,36 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04143112789458182</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>114.5827973589413</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>7438.86</v>
+        <v>9541.846000000001</v>
       </c>
       <c r="D13">
-        <v>0.5801790585323959</v>
+        <v>0.1612653202823215</v>
       </c>
       <c r="E13">
-        <v>4315.870791354298</v>
+        <v>1538.768851274588</v>
       </c>
       <c r="F13">
-        <v>0.4198209414676041</v>
+        <v>0.7973035518230968</v>
       </c>
       <c r="G13">
-        <v>3122.989208645701</v>
+        <v>7607.74770674901</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2209,13 +1981,51 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04143112789458182</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>395.329441976404</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>2375.521</v>
+      </c>
+      <c r="D14">
+        <v>0.1612653202823215</v>
+      </c>
+      <c r="E14">
+        <v>383.0891549023805</v>
+      </c>
+      <c r="F14">
+        <v>0.7973035518230968</v>
+      </c>
+      <c r="G14">
+        <v>1894.011330730354</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.04143112789458182</v>
+      </c>
+      <c r="K14">
+        <v>98.4205143672649</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,39 +2081,191 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2">
+        <v>26580.42</v>
+      </c>
+      <c r="D2">
+        <v>0.3505088637148185</v>
+      </c>
+      <c r="E2">
+        <v>9316.672811262635</v>
+      </c>
+      <c r="F2">
+        <v>0.3607544864407373</v>
+      </c>
+      <c r="G2">
+        <v>9589.0057664791</v>
+      </c>
+      <c r="H2">
+        <v>0.2887366498444441</v>
+      </c>
+      <c r="I2">
+        <v>7674.741422258259</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>12102.03</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12102.03</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>10963.98</v>
+      </c>
+      <c r="D4">
+        <v>0.6289713501553212</v>
+      </c>
+      <c r="E4">
+        <v>6896.029303675939</v>
+      </c>
+      <c r="F4">
+        <v>0.3710286498446787</v>
+      </c>
+      <c r="G4">
+        <v>4067.95069632406</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>9141.48</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>9141.48</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
         <v>13292.64</v>
       </c>
-      <c r="D2">
-        <v>0.3624841653899225</v>
-      </c>
-      <c r="E2">
-        <v>4818.371516228698</v>
-      </c>
-      <c r="F2">
-        <v>0.5260338290722316</v>
-      </c>
-      <c r="G2">
-        <v>6992.378317678707</v>
-      </c>
-      <c r="H2">
-        <v>0.1114820055378459</v>
-      </c>
-      <c r="I2">
-        <v>1481.890166092592</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>13292.64</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
+++ b/output_validation/0b_male_pin_percentage_total_OCHA.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="34">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>Population group</t>
@@ -55,67 +55,67 @@
     <t>Category</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
   </si>
   <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
     <t>idp</t>
   </si>
   <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
     <t>ret</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
   </si>
   <si>
     <t>ndsp</t>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,28 +525,28 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>124041.96</v>
+        <v>56476.13999999999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7479750560573946</v>
       </c>
       <c r="E2">
-        <v>124041.96</v>
+        <v>42242.74398240526</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.229998866780615</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>12989.44820014336</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02202607716199041</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1243.947817451373</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -563,28 +563,28 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>144008.76</v>
+        <v>29570.52</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2899498531625629</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8573.96793194063</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6624921725493361</v>
       </c>
       <c r="G3">
-        <v>144008.76</v>
+        <v>19590.23803821359</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0475579742881008</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1406.31402984577</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -601,37 +601,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>56476.13999999999</v>
+        <v>42660.24</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.5664132847520789</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>24163.32666671202</v>
       </c>
       <c r="F4">
-        <v>0.5285901027516089</v>
+        <v>0.3802086730760768</v>
       </c>
       <c r="G4">
-        <v>29852.72864561425</v>
+        <v>16219.79324350697</v>
       </c>
       <c r="H4">
-        <v>0.4714098972483911</v>
+        <v>0.04346546589109143</v>
       </c>
       <c r="I4">
-        <v>26623.41135438575</v>
+        <v>1854.247206625774</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.009912576280752863</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>422.8728831552245</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -639,37 +639,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>51165.24</v>
+        <v>47614.13999999999</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2763671132366832</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>13158.98242104729</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6550785339776489</v>
       </c>
       <c r="G5">
-        <v>51165.24</v>
+        <v>31191.00102780653</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.05162703592585307</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2458.176916358597</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01692731685981476</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>805.9796347875804</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -677,37 +677,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>104144.04</v>
+        <v>124041.96</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1746538347093081</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21664.40397885861</v>
       </c>
       <c r="F6">
-        <v>0.8124667451313677</v>
+        <v>0.773964089295205</v>
       </c>
       <c r="G6">
-        <v>84613.56920363096</v>
+        <v>96004.02260579223</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.04132606974079942</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5126.166689745452</v>
       </c>
       <c r="J6">
-        <v>0.1875332548686322</v>
+        <v>0.01005600625468734</v>
       </c>
       <c r="K6">
-        <v>19530.47079636903</v>
+        <v>1247.366725603676</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -715,28 +715,28 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>281767.4999999999</v>
+        <v>133585.844</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.7936303282700614</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>106017.7772259532</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.1870216821339076</v>
       </c>
       <c r="G7">
-        <v>281767.4999999999</v>
+        <v>24983.44925415777</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01934798959603097</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2584.617519889016</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -753,28 +753,28 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>53642.134</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.7312961625531302</v>
       </c>
       <c r="E8">
-        <v>53642.134</v>
+        <v>39228.28674536079</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.2349945367094737</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>12605.60842743751</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03370930073739602</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1808.238827201696</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -791,28 +791,28 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>124041.96</v>
+        <v>38718.694</v>
       </c>
       <c r="D9">
-        <v>0.7625006163381717</v>
+        <v>0.7801742695693389</v>
       </c>
       <c r="E9">
-        <v>94582.07095179483</v>
+        <v>30207.32881012874</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1575988297589671</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6102.020864195541</v>
       </c>
       <c r="H9">
-        <v>0.2374993836618283</v>
+        <v>0.0622269006716941</v>
       </c>
       <c r="I9">
-        <v>29459.88904820516</v>
+        <v>2409.344325675718</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -829,28 +829,28 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>56476.13999999999</v>
+        <v>36645.665</v>
       </c>
       <c r="D10">
-        <v>0.7625006163381717</v>
+        <v>0.7929942800969818</v>
       </c>
       <c r="E10">
-        <v>43063.09155840086</v>
+        <v>29059.80273535016</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1780685290760373</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>6525.439663563225</v>
       </c>
       <c r="H10">
-        <v>0.2374993836618283</v>
+        <v>0.02893719082698087</v>
       </c>
       <c r="I10">
-        <v>13413.04844159913</v>
+        <v>1060.422601086614</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -867,28 +867,28 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>51165.24</v>
+        <v>281767.4999999999</v>
       </c>
       <c r="D11">
-        <v>0.7625006163381717</v>
+        <v>0.791065957409446</v>
       </c>
       <c r="E11">
-        <v>39013.52703509048</v>
+        <v>222896.677154366</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.1931232883155541</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>54415.86614045288</v>
       </c>
       <c r="H11">
-        <v>0.2374993836618283</v>
+        <v>0.01581075427499976</v>
       </c>
       <c r="I11">
-        <v>12151.71296490952</v>
+        <v>4454.956705180995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -905,37 +905,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>38718.694</v>
+        <v>56257.74</v>
       </c>
       <c r="D12">
-        <v>0.2785826575513146</v>
+        <v>0.628663794284451</v>
       </c>
       <c r="E12">
-        <v>10786.35667143614</v>
+        <v>35367.20428626813</v>
       </c>
       <c r="F12">
-        <v>0.7214173424486855</v>
+        <v>0.1764936784966122</v>
       </c>
       <c r="G12">
-        <v>27932.33732856386</v>
+        <v>9929.135476505997</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09349543837260667</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5259.842063152129</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1013470888463301</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5701.558174073741</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -943,37 +943,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>133585.844</v>
+        <v>62032.31999999999</v>
       </c>
       <c r="D13">
-        <v>0.2785826575513146</v>
+        <v>0.4391019149385846</v>
       </c>
       <c r="E13">
-        <v>37214.69943275533</v>
+        <v>27238.51050008306</v>
       </c>
       <c r="F13">
-        <v>0.7214173424486855</v>
+        <v>0.4876446382271574</v>
       </c>
       <c r="G13">
-        <v>96371.14456724467</v>
+        <v>30249.72824479125</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06455350389900151</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4004.403610984109</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.008699942935256486</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>539.6776441415695</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -981,37 +981,227 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>44203.45299999999</v>
+      </c>
+      <c r="D14">
+        <v>0.624700271132733</v>
+      </c>
+      <c r="E14">
+        <v>27613.90907410302</v>
+      </c>
+      <c r="F14">
+        <v>0.2918746545088312</v>
+      </c>
+      <c r="G14">
+        <v>12901.86757247236</v>
+      </c>
+      <c r="H14">
+        <v>0.07539968673165817</v>
+      </c>
+      <c r="I14">
+        <v>3332.926508657575</v>
+      </c>
+      <c r="J14">
+        <v>0.00802538762677754</v>
+      </c>
+      <c r="K14">
+        <v>354.7498447670425</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>144008.76</v>
+      </c>
+      <c r="D15">
+        <v>0.7841582527586344</v>
+      </c>
+      <c r="E15">
+        <v>112925.6576235375</v>
+      </c>
+      <c r="F15">
+        <v>0.1496428406259407</v>
+      </c>
+      <c r="G15">
+        <v>21549.87992141934</v>
+      </c>
+      <c r="H15">
+        <v>0.06619890661542482</v>
+      </c>
+      <c r="I15">
+        <v>9533.222455043124</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>104144.04</v>
+      </c>
+      <c r="D16">
+        <v>0.5831172771890769</v>
+      </c>
+      <c r="E16">
+        <v>60728.18904027031</v>
+      </c>
+      <c r="F16">
+        <v>0.3873957991753649</v>
+      </c>
+      <c r="G16">
+        <v>40344.96360515117</v>
+      </c>
+      <c r="H16">
+        <v>0.02948692363555816</v>
+      </c>
+      <c r="I16">
+        <v>3070.887354578514</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <v>33257.29399999999</v>
       </c>
-      <c r="D14">
-        <v>0.2785826575513146</v>
-      </c>
-      <c r="E14">
-        <v>9264.905345485389</v>
-      </c>
-      <c r="F14">
-        <v>0.7214173424486855</v>
-      </c>
-      <c r="G14">
-        <v>23992.38865451461</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
+      <c r="D17">
+        <v>0.8444730632458506</v>
+      </c>
+      <c r="E17">
+        <v>28084.88893944784</v>
+      </c>
+      <c r="F17">
+        <v>0.1165588997972592</v>
+      </c>
+      <c r="G17">
+        <v>3876.433598873988</v>
+      </c>
+      <c r="H17">
+        <v>0.03896803695689039</v>
+      </c>
+      <c r="I17">
+        <v>1295.971461678169</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>38465.035</v>
+      </c>
+      <c r="D18">
+        <v>0.9240234766960284</v>
+      </c>
+      <c r="E18">
+        <v>35542.59537193441</v>
+      </c>
+      <c r="F18">
+        <v>0.026949994451861</v>
+      </c>
+      <c r="G18">
+        <v>1036.632479840639</v>
+      </c>
+      <c r="H18">
+        <v>0.04902652885211051</v>
+      </c>
+      <c r="I18">
+        <v>1885.807148224941</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>51165.24</v>
+      </c>
+      <c r="D19">
+        <v>0.8674312585554411</v>
+      </c>
+      <c r="E19">
+        <v>44382.3285274912</v>
+      </c>
+      <c r="F19">
+        <v>0.1053186169796036</v>
+      </c>
+      <c r="G19">
+        <v>5388.652314229493</v>
+      </c>
+      <c r="H19">
+        <v>0.02725012446495541</v>
+      </c>
+      <c r="I19">
+        <v>1394.259158279315</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,31 +1257,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>20572.68</v>
+        <v>8068.02</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.6540118601949976</v>
       </c>
       <c r="E2">
-        <v>20572.68</v>
+        <v>5276.580768290444</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2329490092862201</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1879.43726590141</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1130391305187824</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>912.0019658081467</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1100,112 +1290,112 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>40252.5</v>
+        <v>4224.36</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3195841598793305</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1350.038541627848</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5897774930562981</v>
       </c>
       <c r="G3">
-        <v>40252.5</v>
+        <v>2491.432450567303</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02163833014917246</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>91.40809634895817</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06900001691519914</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>291.4809114558906</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>17720.28</v>
+        <v>6094.320000000001</v>
       </c>
       <c r="D4">
-        <v>0.4277355731430004</v>
+        <v>0.4282774371907243</v>
       </c>
       <c r="E4">
-        <v>7579.594122054447</v>
+        <v>2610.059751020175</v>
       </c>
       <c r="F4">
-        <v>0.3971100340829685</v>
+        <v>0.465292329157762</v>
       </c>
       <c r="G4">
-        <v>7036.900994759745</v>
+        <v>2835.640347432733</v>
       </c>
       <c r="H4">
-        <v>0.1751543927740311</v>
+        <v>0.05867773143280703</v>
       </c>
       <c r="I4">
-        <v>3103.784883185807</v>
+        <v>357.6008722255846</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04775250221870657</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>291.0190293215078</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>8068.02</v>
+        <v>6802.02</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2596001116751376</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1765.80515161652</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7251525007435389</v>
       </c>
       <c r="G5">
-        <v>8068.02</v>
+        <v>4932.501813107567</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01524738758132347</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>103.7130352759139</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1214,112 +1404,112 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>6094.320000000001</v>
+        <v>17720.28</v>
       </c>
       <c r="D6">
-        <v>0.5058192528226277</v>
+        <v>0.04861766279749088</v>
       </c>
       <c r="E6">
-        <v>3082.624388861997</v>
+        <v>861.5185977171219</v>
       </c>
       <c r="F6">
-        <v>0.252790446765425</v>
+        <v>0.8488057624659348</v>
       </c>
       <c r="G6">
-        <v>1540.585875531465</v>
+        <v>15041.07577650986</v>
       </c>
       <c r="H6">
-        <v>0.2413903004119472</v>
+        <v>0.01874899599464879</v>
       </c>
       <c r="I6">
-        <v>1471.109735606538</v>
+        <v>332.2374587440551</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08382757874192558</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1485.448167028969</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>17720.28</v>
+        <v>19083.692</v>
       </c>
       <c r="D7">
-        <v>0.7683007123928434</v>
+        <v>0.3139748305934238</v>
       </c>
       <c r="E7">
-        <v>13614.50374780066</v>
+        <v>5991.798962797079</v>
       </c>
       <c r="F7">
-        <v>0.1175143160328625</v>
+        <v>0.5915523224995896</v>
       </c>
       <c r="G7">
-        <v>2082.386584110814</v>
+        <v>11289.00232446684</v>
       </c>
       <c r="H7">
-        <v>0.1141849715742941</v>
+        <v>0.06789595527463371</v>
       </c>
       <c r="I7">
-        <v>2023.389668088533</v>
+        <v>1295.705498506885</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0265768916323528</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>507.1852142291982</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>8068.02</v>
+        <v>7663.161999999999</v>
       </c>
       <c r="D8">
-        <v>0.7683007123928434</v>
+        <v>0.6688827647836127</v>
       </c>
       <c r="E8">
-        <v>6198.665513599709</v>
+        <v>5125.756985544719</v>
       </c>
       <c r="F8">
-        <v>0.1175143160328625</v>
+        <v>0.2618557855553887</v>
       </c>
       <c r="G8">
-        <v>948.1078520394557</v>
+        <v>2006.643305348203</v>
       </c>
       <c r="H8">
-        <v>0.1141849715742941</v>
+        <v>0.06926144966099851</v>
       </c>
       <c r="I8">
-        <v>921.2466343608365</v>
+        <v>530.7617091070766</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1328,45 +1518,45 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>7309.320000000001</v>
+        <v>5235.094999999999</v>
       </c>
       <c r="D9">
-        <v>0.7683007123928434</v>
+        <v>0.4228032570458399</v>
       </c>
       <c r="E9">
-        <v>5615.755763107259</v>
+        <v>2213.415216944391</v>
       </c>
       <c r="F9">
-        <v>0.1175143160328625</v>
+        <v>0.4106630319422648</v>
       </c>
       <c r="G9">
-        <v>858.9497404653229</v>
+        <v>2149.859985205791</v>
       </c>
       <c r="H9">
-        <v>0.1141849715742941</v>
+        <v>0.08301522853837168</v>
       </c>
       <c r="I9">
-        <v>834.6144964274196</v>
+        <v>434.5926078450868</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08351848247352356</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>437.2271900047307</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1374,37 +1564,37 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>5531.242</v>
+        <v>8036.82</v>
       </c>
       <c r="D10">
-        <v>0.5191195119111097</v>
+        <v>0.5553267378807409</v>
       </c>
       <c r="E10">
-        <v>2871.37564730223</v>
+        <v>4463.061033534696</v>
       </c>
       <c r="F10">
-        <v>0.3429346764047292</v>
+        <v>0.2857939673992496</v>
       </c>
       <c r="G10">
-        <v>1896.854685386247</v>
+        <v>2296.874673073637</v>
       </c>
       <c r="H10">
-        <v>0.1379458116841611</v>
+        <v>0.07349868043284102</v>
       </c>
       <c r="I10">
-        <v>763.0116673115224</v>
+        <v>590.6956648762654</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08538061428716844</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>686.188628515401</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1412,66 +1602,66 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>19083.692</v>
+        <v>8861.76</v>
       </c>
       <c r="D11">
-        <v>0.5191195119111097</v>
+        <v>0.2903546969040392</v>
       </c>
       <c r="E11">
-        <v>9906.716876501951</v>
+        <v>2573.053638836338</v>
       </c>
       <c r="F11">
-        <v>0.3429346764047292</v>
+        <v>0.5095981950530968</v>
       </c>
       <c r="G11">
-        <v>6544.45974062752</v>
+        <v>4515.936900993731</v>
       </c>
       <c r="H11">
-        <v>0.1379458116841611</v>
+        <v>0.1767228389255024</v>
       </c>
       <c r="I11">
-        <v>2632.515382870532</v>
+        <v>1566.07538507646</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02332426911736172</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>206.6940750934714</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>4751.041999999999</v>
+        <v>20572.68</v>
       </c>
       <c r="D12">
-        <v>0.5191195119111097</v>
+        <v>0.5593708819099853</v>
       </c>
       <c r="E12">
-        <v>2466.358604109182</v>
+        <v>11507.75815485192</v>
       </c>
       <c r="F12">
-        <v>0.3429346764047292</v>
+        <v>0.4086532998696034</v>
       </c>
       <c r="G12">
-        <v>1629.297050855277</v>
+        <v>8407.093569161392</v>
       </c>
       <c r="H12">
-        <v>0.1379458116841611</v>
+        <v>0.03197581822041135</v>
       </c>
       <c r="I12">
-        <v>655.3863450355399</v>
+        <v>657.8282759866921</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1480,7 +1670,45 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>14877.72</v>
+      </c>
+      <c r="D13">
+        <v>0.1583284297571598</v>
+      </c>
+      <c r="E13">
+        <v>2355.566045966692</v>
+      </c>
+      <c r="F13">
+        <v>0.8068898558470062</v>
+      </c>
+      <c r="G13">
+        <v>12004.68134613212</v>
+      </c>
+      <c r="H13">
+        <v>0.03478171439583397</v>
+      </c>
+      <c r="I13">
+        <v>517.472607901187</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1536,31 +1764,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>2112.18</v>
+        <v>4034.01</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5853868264010187</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2361.456311569973</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3794977558531176</v>
       </c>
       <c r="G2">
-        <v>2112.18</v>
+        <v>1530.897742089035</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03511541774586386</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>141.6559463409923</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1569,74 +1797,74 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>20126.25</v>
+        <v>2112.18</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1881113598201735</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>397.3250519849742</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6803408258131957</v>
       </c>
       <c r="G3">
-        <v>20126.25</v>
+        <v>1437.002285466116</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02539776024089409</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>53.64464122561167</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1061500541257369</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>224.2080213232989</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>8860.140000000001</v>
+        <v>3047.16</v>
       </c>
       <c r="D4">
-        <v>0.4870849151903637</v>
+        <v>0.4522314307539207</v>
       </c>
       <c r="E4">
-        <v>4315.64054047475</v>
+        <v>1378.021526536117</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.535172232157055</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1630.755418939692</v>
       </c>
       <c r="H4">
-        <v>0.5129150848096363</v>
+        <v>0.01259633708902428</v>
       </c>
       <c r="I4">
-        <v>4544.499459525252</v>
+        <v>38.38305452419124</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1645,36 +1873,36 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>4034.01</v>
+        <v>3401.01</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3628408843989914</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1234.025476249814</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5612727249817211</v>
       </c>
       <c r="G5">
-        <v>4034.01</v>
+        <v>1908.894150390083</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.07588639061928751</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>258.090373360103</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1683,30 +1911,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>3654.66</v>
+        <v>8860.140000000001</v>
       </c>
       <c r="D6">
-        <v>0.5613538191485988</v>
+        <v>0.07316629031944184</v>
       </c>
       <c r="E6">
-        <v>2051.557348689618</v>
+        <v>648.2635755108995</v>
       </c>
       <c r="F6">
-        <v>0.4386461808514012</v>
+        <v>0.9268337096805581</v>
       </c>
       <c r="G6">
-        <v>1603.102651310382</v>
+        <v>8211.876424489101</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1721,36 +1949,36 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>7438.86</v>
+        <v>9541.846000000001</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.443996661956498</v>
       </c>
       <c r="E7">
-        <v>7438.86</v>
+        <v>4236.547772902964</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.4760960270901249</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4542.834971705801</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.07990731095337696</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>762.4632553912362</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1759,36 +1987,36 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>20126.25</v>
+        <v>3831.581</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3918059515410319</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1501.236239611538</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.534593454033195</v>
       </c>
       <c r="G8">
-        <v>20126.25</v>
+        <v>2048.338121197963</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.07360059442577312</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>282.0066391904982</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1797,235 +2025,197 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>8860.140000000001</v>
+        <v>2617.5475</v>
       </c>
       <c r="D9">
-        <v>0.5728914991970709</v>
+        <v>0.3246193244816443</v>
       </c>
       <c r="E9">
-        <v>5075.898887695937</v>
+        <v>849.7065012486167</v>
       </c>
       <c r="F9">
-        <v>0.427108500802929</v>
+        <v>0.5008968621725338</v>
       </c>
       <c r="G9">
-        <v>3784.241112304064</v>
+        <v>1311.12132933756</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.129743185531197</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>339.6089509292208</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04474062781462478</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>117.1107184846015</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>4034.01</v>
+        <v>4018.41</v>
       </c>
       <c r="D10">
-        <v>0.5728914991970709</v>
+        <v>0.4928355615432358</v>
       </c>
       <c r="E10">
-        <v>2311.050036675976</v>
+        <v>1980.415348860954</v>
       </c>
       <c r="F10">
-        <v>0.427108500802929</v>
+        <v>0.3626867371558554</v>
       </c>
       <c r="G10">
-        <v>1722.959963324024</v>
+        <v>1457.424011454461</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1190506602479244</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>478.3943636468618</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02542704105298452</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>102.1762760377235</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>3654.66</v>
+        <v>4430.88</v>
       </c>
       <c r="D11">
-        <v>0.5728914991970709</v>
+        <v>0.2535230518171918</v>
       </c>
       <c r="E11">
-        <v>2093.723646455568</v>
+        <v>1123.330219835759</v>
       </c>
       <c r="F11">
-        <v>0.427108500802929</v>
+        <v>0.6450779162767399</v>
       </c>
       <c r="G11">
-        <v>1560.936353544433</v>
+        <v>2858.262837672281</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09519507690366545</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>421.7979623509132</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.006203955002402782</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.48898014104644</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>2765.621</v>
+        <v>10286.34</v>
       </c>
       <c r="D12">
-        <v>0.1612653202823215</v>
+        <v>0.5718279007459466</v>
       </c>
       <c r="E12">
-        <v>445.9987563445142</v>
+        <v>5882.01620855906</v>
       </c>
       <c r="F12">
-        <v>0.7973035518230968</v>
+        <v>0.2237822709111292</v>
       </c>
       <c r="G12">
-        <v>2205.039446296545</v>
+        <v>2301.900524563985</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2043898283429242</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2102.423266876955</v>
       </c>
       <c r="J12">
-        <v>0.04143112789458182</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>114.5827973589413</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>9541.846000000001</v>
+        <v>7438.86</v>
       </c>
       <c r="D13">
-        <v>0.1612653202823215</v>
+        <v>0.4177383882796832</v>
       </c>
       <c r="E13">
-        <v>1538.768851274588</v>
+        <v>3107.497387038204</v>
       </c>
       <c r="F13">
-        <v>0.7973035518230968</v>
+        <v>0.4557602641860585</v>
       </c>
       <c r="G13">
-        <v>7607.74770674901</v>
+        <v>3390.336798843103</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.03652022065847701</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>271.6688086475183</v>
       </c>
       <c r="J13">
-        <v>0.04143112789458182</v>
+        <v>0.08998112687578116</v>
       </c>
       <c r="K13">
-        <v>395.329441976404</v>
+        <v>669.3570054711735</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>2375.521</v>
-      </c>
-      <c r="D14">
-        <v>0.1612653202823215</v>
-      </c>
-      <c r="E14">
-        <v>383.0891549023805</v>
-      </c>
-      <c r="F14">
-        <v>0.7973035518230968</v>
-      </c>
-      <c r="G14">
-        <v>1894.011330730354</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.04143112789458182</v>
-      </c>
-      <c r="K14">
-        <v>98.4205143672649</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2081,31 +2271,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2">
-        <v>26580.42</v>
+        <v>13292.64</v>
       </c>
       <c r="D2">
-        <v>0.3505088637148185</v>
+        <v>0.2823734803505052</v>
       </c>
       <c r="E2">
-        <v>9316.672811262635</v>
+        <v>3753.489019846339</v>
       </c>
       <c r="F2">
-        <v>0.3607544864407373</v>
+        <v>0.6573722163971507</v>
       </c>
       <c r="G2">
-        <v>9589.0057664791</v>
+        <v>8738.212218569421</v>
       </c>
       <c r="H2">
-        <v>0.2887366498444441</v>
+        <v>0.06025430325234421</v>
       </c>
       <c r="I2">
-        <v>7674.741422258259</v>
+        <v>800.9387615842406</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2114,158 +2304,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>12102.03</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>12102.03</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>10963.98</v>
-      </c>
-      <c r="D4">
-        <v>0.6289713501553212</v>
-      </c>
-      <c r="E4">
-        <v>6896.029303675939</v>
-      </c>
-      <c r="F4">
-        <v>0.3710286498446787</v>
-      </c>
-      <c r="G4">
-        <v>4067.95069632406</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>9141.48</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>9141.48</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>13292.64</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>13292.64</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
         <v>33</v>
       </c>
     </row>
